--- a/data/trans_orig/PESO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Peso medio en kg</t>
+          <t>Peso medio en kg (tasa de respuesta: 98,23%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PESO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>79,45</t>
+          <t>79,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,39</t>
+          <t>64,53</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>71,83</t>
+          <t>71,48</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>78,42; 80,91</t>
+          <t>77,81; 80,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>78,52; 81,21</t>
+          <t>78,55; 81,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>78,07; 80,69</t>
+          <t>78,23; 80,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>63,28; 65,6</t>
+          <t>63,3; 65,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,86; 67,52</t>
+          <t>64,95; 67,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,09; 63,2</t>
+          <t>61,06; 63,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>70,93; 72,94</t>
+          <t>70,5; 72,59</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>72,61; 74,7</t>
+          <t>72,64; 74,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,77; 71,72</t>
+          <t>69,7; 71,73</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,58</t>
+          <t>79,93</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>63,78</t>
+          <t>64,41</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>70,82</t>
+          <t>71,57</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,76; 82,64</t>
+          <t>78,24; 81,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>80,16; 83,02</t>
+          <t>80,13; 82,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,97; 82,54</t>
+          <t>79,05; 82,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,56; 65,04</t>
+          <t>62,84; 65,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>66,06; 68,66</t>
+          <t>66,0; 68,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>62,47; 65,2</t>
+          <t>62,8; 65,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,6; 72,08</t>
+          <t>70,27; 72,95</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>74,07; 76,46</t>
+          <t>73,95; 76,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>70,03; 72,48</t>
+          <t>69,9; 72,33</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>80,34</t>
+          <t>81,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>65,21</t>
+          <t>66,5</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>75,95</t>
+          <t>77,24</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>79,12; 81,73</t>
+          <t>79,58; 82,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>80,52; 97,21</t>
+          <t>80,68; 97,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>77,81; 82,19</t>
+          <t>77,61; 82,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>63,48; 67,07</t>
+          <t>64,28; 69,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,53; 69,98</t>
+          <t>65,43; 69,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1039,17 +1039,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>59,69; 65,05</t>
+          <t>59,99; 65,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>74,76; 77,25</t>
+          <t>75,87; 78,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>76,63; 95,58</t>
+          <t>76,77; 95,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>71,43; 75,57</t>
+          <t>71,29; 75,33</t>
         </is>
       </c>
     </row>
@@ -1076,7 +1076,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,51</t>
+          <t>80,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,33</t>
+          <t>67,02</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>73,1</t>
+          <t>73,67</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>79,21; 81,85</t>
+          <t>79,12; 82,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>79,44; 82,16</t>
+          <t>79,47; 82,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>77,08; 80,66</t>
+          <t>77,16; 80,49</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>65,28; 67,42</t>
+          <t>65,8; 68,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,32; 78,54</t>
+          <t>67,26; 77,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>65,35; 68,76</t>
+          <t>65,43; 68,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,13; 74,1</t>
+          <t>72,47; 74,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>74,63; 78,76</t>
+          <t>74,65; 79,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>71,64; 74,46</t>
+          <t>71,72; 74,47</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>78,89</t>
+          <t>78,07</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>66,96</t>
+          <t>67,32</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>70,96</t>
+          <t>71,31</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>77,27; 80,66</t>
+          <t>76,43; 79,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,75; 82,13</t>
+          <t>77,87; 82,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,03; 80,77</t>
+          <t>75,09; 80,59</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>65,6; 68,3</t>
+          <t>65,79; 68,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,05; 70,92</t>
+          <t>64,59; 70,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>64,6; 69,87</t>
+          <t>64,29; 69,73</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>69,87; 72,23</t>
+          <t>70,17; 72,61</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>68,39; 74,36</t>
+          <t>68,28; 74,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>68,94; 72,91</t>
+          <t>68,88; 73,28</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>72,37</t>
+          <t>73,6</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>66,64</t>
+          <t>64,61</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>67,91</t>
+          <t>67,13</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,0; 74,93</t>
+          <t>71,32; 77,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>71,68; 79,85</t>
+          <t>71,78; 79,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>64,48; 73,09</t>
+          <t>65,37; 72,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>65,28; 68,46</t>
+          <t>63,26; 65,89</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>67,04; 69,5</t>
+          <t>66,79; 69,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>60,56; 64,94</t>
+          <t>60,56; 65,14</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,61; 69,31</t>
+          <t>65,79; 68,6</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>68,62; 71,39</t>
+          <t>68,59; 71,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>63,01; 66,95</t>
+          <t>62,89; 67,28</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>79,66</t>
+          <t>79,53</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>65,62</t>
+          <t>65,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>72,1</t>
+          <t>72,28</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>78,98; 80,31</t>
+          <t>78,8; 80,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,92; 89,15</t>
+          <t>79,97; 88,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>78,11; 79,76</t>
+          <t>78,11; 79,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>65,09; 66,21</t>
+          <t>65,1; 66,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>67,42; 73,21</t>
+          <t>67,4; 73,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>63,47; 64,9</t>
+          <t>63,54; 64,97</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>71,62; 72,53</t>
+          <t>71,77; 72,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73,69; 80,43</t>
+          <t>73,7; 80,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,55; 71,76</t>
+          <t>70,6; 71,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PESO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PESO-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>79,76</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>79,33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81,61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>79,03</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>79,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>81,61</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>79,33</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>66,08</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>62,15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>62,54</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>64,53</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>65,98</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>62,54</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>62,15</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>73,56</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>70,7</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>72,41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>71,48</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>73,63</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>72,41</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>70,7</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>78,44; 81,06</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>78,23; 80,82</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>80,44; 83,05</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>77,81; 80,38</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>78,55; 81,25</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>80,44; 83,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>78,23; 80,82</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>65,02; 67,51</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>61,06; 63,25</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>61,56; 63,59</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>63,3; 65,64</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>64,95; 67,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>61,56; 63,59</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>61,06; 63,25</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>72,58; 74,59</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>69,7; 71,73</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71,37; 73,44</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>70,5; 72,59</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>72,64; 74,67</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>71,37; 73,44</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>69,7; 71,73</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>81,33</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>80,67</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80,6</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>79,93</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>81,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>80,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>80,67</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>67,4</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>63,88</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64,65</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>64,41</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>67,33</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>64,65</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>63,88</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>75,03</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71,12</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71,95</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>71,57</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>75,19</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>71,95</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>71,12</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>79,99; 82,7</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>79,05; 82,45</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>79,18; 81,95</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>78,24; 81,65</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>80,13; 82,85</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>79,18; 81,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>79,05; 82,45</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>66,14; 68,67</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>62,8; 65,32</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>63,48; 66,02</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>62,84; 65,94</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>66,0; 68,64</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>63,48; 66,02</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>62,8; 65,32</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>73,88; 76,09</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>69,9; 72,33</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>70,91; 73,09</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>70,27; 72,95</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>73,95; 76,23</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>70,91; 73,09</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>69,9; 72,33</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>81,06</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>79,76</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>80,78</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>81,09</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>90,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>80,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>79,76</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>67,53</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>62,55</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>65,84</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>66,5</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>67,67</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>65,84</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>62,55</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>77,03</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>73,36</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>76,12</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>77,24</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>87,08</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>76,12</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>73,36</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>79,55; 82,78</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>77,61; 82,13</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79,31; 82,45</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>79,58; 82,64</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>80,68; 97,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>79,31; 82,45</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>77,61; 82,13</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>65,41; 69,64</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59,99; 65,02</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>63,96; 68,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>64,28; 69,17</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>65,43; 69,83</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>63,96; 68,03</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>59,99; 65,02</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>75,51; 78,47</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>71,29; 75,33</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>74,79; 77,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>75,87; 78,65</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>76,77; 95,91</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>74,79; 77,65</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>71,29; 75,33</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>80,7</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>78,74</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>82,24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>80,64</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>80,83</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>82,24</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>78,74</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>67,82</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>66,96</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66,1</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>67,02</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>72,46</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>66,1</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>66,96</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>74,98</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>72,95</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>74,05</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>73,67</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>76,28</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>74,05</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>72,95</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>79,51; 81,98</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>77,16; 80,49</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>80,94; 83,58</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>79,12; 82,26</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>79,47; 82,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>80,94; 83,58</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>77,16; 80,49</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>66,82; 68,94</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>65,43; 68,91</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>64,97; 67,49</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>65,8; 68,47</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>67,26; 77,94</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>64,97; 67,49</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>65,43; 68,91</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>74,15; 75,91</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>71,72; 74,47</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>73,06; 75,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>72,47; 74,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>74,65; 79,08</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>73,06; 75,05</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>71,72; 74,47</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>80,12</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>77,97</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,22</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>78,07</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>79,9</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>81,22</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>77,97</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>70,64</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>66,89</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>67,5</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>67,32</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>68,59</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>67,5</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>66,89</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>74,3</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>70,96</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74,26</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>71,31</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>72,38</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>74,26</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>70,96</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>78,3; 81,99</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>75,09; 80,59</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>79,57; 83,3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>76,43; 79,76</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>77,87; 82,07</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>79,57; 83,3</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>75,09; 80,59</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>69,53; 72,01</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>64,29; 69,73</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>65,9; 69,25</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>65,79; 68,88</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>64,59; 70,74</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>65,9; 69,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>64,29; 69,73</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>73,24; 75,4</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>68,88; 73,28</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>72,91; 75,75</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>70,17; 72,61</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>68,28; 74,34</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>72,91; 75,75</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>68,88; 73,28</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>74,81</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69,21</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>77,41</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>73,6</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>75,25</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>77,41</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>69,21</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>68,18</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>62,57</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>61,26</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>64,61</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>68,17</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>61,26</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>62,57</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>69,75</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>64,93</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>68,51</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>67,13</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>69,97</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>68,51</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>64,93</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>71,65; 78,29</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>65,37; 72,93</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>71,19; 85,94</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>71,32; 77,29</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>71,78; 79,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>71,19; 85,94</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>65,37; 72,93</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>66,91; 69,28</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60,56; 65,14</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>57,99; 66,3</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>63,26; 65,89</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>66,79; 69,33</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>57,99; 66,3</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>60,56; 65,14</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>68,57; 71,19</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>62,89; 67,28</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>64,3; 74,03</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>65,79; 68,6</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>68,59; 71,56</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>64,3; 74,03</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>62,89; 67,28</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>80,12</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>78,88</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>81,39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>79,53</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>82,54</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>81,39</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>78,88</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>68,1</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>64,19</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>65,0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>65,67</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>69,08</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>65,0</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>64,19</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
+          <t>73,94</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>71,21</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>73,44</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
           <t>72,28</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>75,64</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>73,44</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>71,21</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>79,52; 80,92</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>78,11; 79,74</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>80,79; 82,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>78,8; 80,23</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>79,97; 88,28</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>80,79; 82,07</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>78,11; 79,74</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>67,54; 68,61</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>63,54; 64,97</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>64,42; 65,63</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>65,1; 66,29</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>67,4; 73,14</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>64,42; 65,63</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>63,54; 64,97</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>73,48; 74,41</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70,6; 71,8</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>72,93; 74,03</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>71,77; 72,79</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>73,7; 80,5</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>72,93; 74,03</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>70,6; 71,8</t>
         </is>
       </c>
     </row>
